--- a/web/storage/screenshot/Feuil4-Processing-Empty.xlsx
+++ b/web/storage/screenshot/Feuil4-Processing-Empty.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mobileAppUI\web\storage\screenshot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mobileAppUI\web\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="202">
   <si>
     <t>UI_ID</t>
   </si>
@@ -553,9 +553,6 @@
     <t>Screenshot Wave Business</t>
   </si>
   <si>
-    <t>.Screenshot_2026-02-11-20-38-19-059.jpg</t>
-  </si>
-  <si>
     <t>Screenshot_2026-02-11-20-21-02-946.jpg</t>
   </si>
   <si>
@@ -631,97 +628,7 @@
     <t>TipTop Transfer Business</t>
   </si>
   <si>
-    <t>Screenshot%20Wave%20Agent/</t>
-  </si>
-  <si>
-    <t>Screenshot%20Wave%20Business/</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-52-49-013.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-53-37-106.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-55-31-617.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-55-50-453.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-00-54-346.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-10-32-614.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Agent/Screenshot_2026-02-11-20-49-30-036.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/.Screenshot_2026-02-11-20-38-19-059.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-21-02-946.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-21-02-947.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-21-03-947.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-33-44-368.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-34-38-661.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-35-21-128.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-35-45-135.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-36-32-694.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-36-58-564.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-37-38-253.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-38-19-060.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-39-12-571.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-39-33-459.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-39-34-459.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-43-31-709.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-44-01-526.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-44-43-362.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-46-20-070.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-46-20-071.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-47-53-039.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-48-14-287.jpg</t>
+    <t>Screenshot_2026-02-11-20-38-19-059.jpg</t>
   </si>
 </sst>
 </file>
@@ -1144,9 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,9 +1075,7 @@
     <col min="20" max="20" width="30" style="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="1" customWidth="1"/>
     <col min="22" max="22" width="60" style="1" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3233,15 +3138,9 @@
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
-      <c r="V46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X46" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -3275,15 +3174,9 @@
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
-      <c r="V47" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X47" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -3317,15 +3210,9 @@
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
-      <c r="V48" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X48" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -3359,15 +3246,9 @@
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
-      <c r="V49" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X49" s="6" t="s">
-        <v>207</v>
-      </c>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -3401,15 +3282,9 @@
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
-      <c r="V50" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X50" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -3443,15 +3318,9 @@
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
-      <c r="V51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X51" s="6" t="s">
-        <v>209</v>
-      </c>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -3467,10 +3336,10 @@
         <v>173</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -3485,15 +3354,9 @@
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
-      <c r="V52" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W52" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="X52" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -3501,7 +3364,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -3509,10 +3372,10 @@
         <v>175</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -3527,15 +3390,9 @@
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
-      <c r="V53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W53" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X53" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -3543,7 +3400,7 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -3551,10 +3408,10 @@
         <v>175</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -3569,15 +3426,9 @@
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
-      <c r="V54" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W54" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X54" s="6" t="s">
-        <v>212</v>
-      </c>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -3585,7 +3436,7 @@
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -3593,10 +3444,10 @@
         <v>175</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -3611,15 +3462,9 @@
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
-      <c r="V55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W55" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X55" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -3627,7 +3472,7 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -3635,10 +3480,10 @@
         <v>175</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -3653,15 +3498,9 @@
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
-      <c r="V56" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W56" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X56" s="6" t="s">
-        <v>214</v>
-      </c>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -3669,7 +3508,7 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -3677,10 +3516,10 @@
         <v>175</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -3695,15 +3534,9 @@
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
-      <c r="V57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W57" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X57" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -3711,7 +3544,7 @@
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3719,10 +3552,10 @@
         <v>175</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -3737,15 +3570,9 @@
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
-      <c r="V58" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W58" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X58" s="6" t="s">
-        <v>216</v>
-      </c>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -3753,7 +3580,7 @@
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3761,10 +3588,10 @@
         <v>175</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3779,15 +3606,9 @@
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
-      <c r="V59" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W59" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X59" s="6" t="s">
-        <v>217</v>
-      </c>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -3795,7 +3616,7 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -3803,10 +3624,10 @@
         <v>175</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -3821,15 +3642,9 @@
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
-      <c r="V60" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W60" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X60" s="6" t="s">
-        <v>218</v>
-      </c>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -3837,7 +3652,7 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3845,10 +3660,10 @@
         <v>175</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -3863,15 +3678,9 @@
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
-      <c r="V61" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W61" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X61" s="6" t="s">
-        <v>219</v>
-      </c>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -3879,7 +3688,7 @@
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -3887,10 +3696,10 @@
         <v>175</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -3905,15 +3714,9 @@
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
-      <c r="V62" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W62" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X62" s="6" t="s">
-        <v>220</v>
-      </c>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -3921,7 +3724,7 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -3929,10 +3732,10 @@
         <v>175</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -3947,15 +3750,9 @@
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
-      <c r="V63" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W63" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X63" s="6" t="s">
-        <v>221</v>
-      </c>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -3963,7 +3760,7 @@
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3971,10 +3768,10 @@
         <v>175</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3989,15 +3786,9 @@
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
-      <c r="V64" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W64" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X64" s="6" t="s">
-        <v>222</v>
-      </c>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -4005,7 +3796,7 @@
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -4013,10 +3804,10 @@
         <v>175</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -4031,15 +3822,9 @@
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
-      <c r="V65" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W65" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X65" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -4047,7 +3832,7 @@
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -4055,10 +3840,10 @@
         <v>175</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -4073,15 +3858,9 @@
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
-      <c r="V66" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W66" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X66" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -4089,7 +3868,7 @@
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -4097,10 +3876,10 @@
         <v>175</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -4115,15 +3894,9 @@
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
-      <c r="V67" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W67" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X67" s="6" t="s">
-        <v>225</v>
-      </c>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -4131,7 +3904,7 @@
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -4139,10 +3912,10 @@
         <v>175</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -4157,15 +3930,9 @@
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
-      <c r="V68" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W68" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X68" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -4173,7 +3940,7 @@
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -4181,10 +3948,10 @@
         <v>175</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -4199,15 +3966,9 @@
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
-      <c r="V69" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W69" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X69" s="6" t="s">
-        <v>227</v>
-      </c>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -4215,7 +3976,7 @@
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -4223,10 +3984,10 @@
         <v>175</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -4241,15 +4002,9 @@
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
-      <c r="V70" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W70" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X70" s="6" t="s">
-        <v>228</v>
-      </c>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -4257,7 +4012,7 @@
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -4265,10 +4020,10 @@
         <v>175</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -4283,15 +4038,9 @@
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
-      <c r="V71" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W71" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X71" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -4299,7 +4048,7 @@
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -4307,10 +4056,10 @@
         <v>175</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -4325,15 +4074,9 @@
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
-      <c r="V72" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W72" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X72" s="6" t="s">
-        <v>230</v>
-      </c>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -4341,7 +4084,7 @@
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -4349,10 +4092,10 @@
         <v>175</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -4367,15 +4110,9 @@
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
-      <c r="V73" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W73" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X73" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -4383,7 +4120,7 @@
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -4391,10 +4128,10 @@
         <v>175</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -4409,15 +4146,9 @@
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
-      <c r="V74" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W74" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X74" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4449,9 +4180,8 @@
     <hyperlink ref="X37" r:id="rId26"/>
     <hyperlink ref="V33" r:id="rId27"/>
     <hyperlink ref="V43:V45" r:id="rId28" display="https://ttt-mobileapp.fwh.is/storage/screenshot/"/>
-    <hyperlink ref="V46:V74" r:id="rId29" display="https://ttt-mobileapp.fwh.is/storage/screenshot/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>